--- a/planilha Base.xlsx
+++ b/planilha Base.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,7 +67,7 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
@@ -86,8 +86,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -238,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -246,7 +252,7 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
@@ -264,29 +270,32 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -601,8 +610,8 @@
   <cols>
     <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="10.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
